--- a/data/col2edb.xlsx
+++ b/data/col2edb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>col</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,124 @@
   <si>
     <t>M0010131</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2:同比</t>
+  </si>
+  <si>
+    <t>M0001385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会融资规模存量:同比</t>
+  </si>
+  <si>
+    <t>M5525763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票据直贴利率(月息):6个月:长三角</t>
+  </si>
+  <si>
+    <t>票据转贴利率(月息):6个月</t>
+  </si>
+  <si>
+    <t>M0061578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0061579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行间质押式回购加权利率:1天</t>
+  </si>
+  <si>
+    <t>银行间质押式回购加权利率:7天</t>
+  </si>
+  <si>
+    <t>银行间质押式回购加权利率:14天</t>
+  </si>
+  <si>
+    <t>M0041652</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0041653</t>
+  </si>
+  <si>
+    <t>M0041654</t>
+  </si>
+  <si>
+    <t>中国大宗商品价格指数:总指数</t>
+  </si>
+  <si>
+    <t>中国大宗商品价格指数:能源类</t>
+  </si>
+  <si>
+    <t>中国大宗商品价格指数:钢铁类</t>
+  </si>
+  <si>
+    <t>中国大宗商品价格指数:矿产类</t>
+  </si>
+  <si>
+    <t>中国大宗商品价格指数:有色类</t>
+  </si>
+  <si>
+    <t>中国大宗商品价格指数:橡胶类</t>
+  </si>
+  <si>
+    <t>中国大宗商品价格指数:农产品类</t>
+  </si>
+  <si>
+    <t>中国大宗商品价格指数:牲畜类</t>
+  </si>
+  <si>
+    <t>中国大宗商品价格指数:油料油脂类</t>
+  </si>
+  <si>
+    <t>中国大宗商品价格指数:食糖类</t>
+  </si>
+  <si>
+    <t>S5042881</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5042882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5042883</t>
+  </si>
+  <si>
+    <t>S5042884</t>
+  </si>
+  <si>
+    <t>S5042885</t>
+  </si>
+  <si>
+    <t>S5042886</t>
+  </si>
+  <si>
+    <t>S5042887</t>
+  </si>
+  <si>
+    <t>S5042888</t>
+  </si>
+  <si>
+    <t>S5042889</t>
+  </si>
+  <si>
+    <t>S5042890</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="###,###,###,###,##0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="###,###,###,###,##0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -104,9 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -464,6 +577,142 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
